--- a/secteur-action-publique/services-publics-et-territoires/barometre-resultats-services-publics-et-territoires-data.xlsx
+++ b/secteur-action-publique/services-publics-et-territoires/barometre-resultats-services-publics-et-territoires-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28217" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28219" uniqueCount="481">
   <si>
     <t>mesure</t>
   </si>
@@ -3670,6 +3670,12 @@
       <c r="F4" t="s">
         <v>165</v>
       </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
       <c r="N4" t="s">
         <v>130</v>
       </c>
